--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>0.04510742554677777</v>
+        <v>0.6655358276982223</v>
       </c>
       <c r="R2">
-        <v>0.4059668299209999</v>
+        <v>5.989822449284</v>
       </c>
       <c r="S2">
-        <v>9.048692926446479E-05</v>
+        <v>0.001452910584666213</v>
       </c>
       <c r="T2">
-        <v>9.647933876875506E-05</v>
+        <v>0.00151053397909184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H3">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I3">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J3">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>0.108920966484</v>
+        <v>2.153643816984</v>
       </c>
       <c r="R3">
-        <v>0.9802886983559999</v>
+        <v>19.382794352856</v>
       </c>
       <c r="S3">
-        <v>0.0002184989205254898</v>
+        <v>0.004701552894783933</v>
       </c>
       <c r="T3">
-        <v>0.0002329688005255873</v>
+        <v>0.004888019591171394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H4">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I4">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J4">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>0.05835945574177778</v>
+        <v>1.093332410485778</v>
       </c>
       <c r="R4">
-        <v>0.525235101676</v>
+        <v>9.839991694371999</v>
       </c>
       <c r="S4">
-        <v>0.000117070923015604</v>
+        <v>0.002386820011249192</v>
       </c>
       <c r="T4">
-        <v>0.0001248238318330131</v>
+        <v>0.002481482871016842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H5">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I5">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J5">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>0.05790908905066666</v>
+        <v>0.7032757120740001</v>
       </c>
       <c r="R5">
-        <v>0.347454534304</v>
+        <v>4.219654272444</v>
       </c>
       <c r="S5">
-        <v>0.0001161674731195468</v>
+        <v>0.00153529935352226</v>
       </c>
       <c r="T5">
-        <v>8.257370122672082E-05</v>
+        <v>0.001064126893996438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H6">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I6">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J6">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>0.06806982995977778</v>
+        <v>1.529412287624</v>
       </c>
       <c r="R6">
-        <v>0.612628469638</v>
+        <v>13.764710588616</v>
       </c>
       <c r="S6">
-        <v>0.0001365502423149165</v>
+        <v>0.003338812440335001</v>
       </c>
       <c r="T6">
-        <v>0.0001455931502410935</v>
+        <v>0.003471231949280085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.863179</v>
       </c>
       <c r="I7">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J7">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>65.33863562332432</v>
+        <v>48.75633675064733</v>
       </c>
       <c r="R7">
-        <v>588.0477206099189</v>
+        <v>438.807030755826</v>
       </c>
       <c r="S7">
-        <v>0.1310713796723593</v>
+        <v>0.1064384437116833</v>
       </c>
       <c r="T7">
-        <v>0.1397514552111535</v>
+        <v>0.1106598627644306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.863179</v>
       </c>
       <c r="I8">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J8">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
         <v>157.773299064876</v>
@@ -948,10 +948,10 @@
         <v>1419.959691583884</v>
       </c>
       <c r="S8">
-        <v>0.3164982523221059</v>
+        <v>0.344429986559653</v>
       </c>
       <c r="T8">
-        <v>0.3374580434292075</v>
+        <v>0.3580903075573832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.863179</v>
       </c>
       <c r="I9">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J9">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>84.53435698592934</v>
+        <v>80.09618861602867</v>
       </c>
       <c r="R9">
-        <v>760.809212873364</v>
+        <v>720.865697544258</v>
       </c>
       <c r="S9">
-        <v>0.1695786068098764</v>
+        <v>0.1748555004681385</v>
       </c>
       <c r="T9">
-        <v>0.1808087862781377</v>
+        <v>0.1817903852279469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>14.863179</v>
       </c>
       <c r="I10">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J10">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>83.88199554497599</v>
+        <v>51.52111429526099</v>
       </c>
       <c r="R10">
-        <v>503.2919732698559</v>
+        <v>309.126685771566</v>
       </c>
       <c r="S10">
-        <v>0.1682699490257784</v>
+        <v>0.1124741436569582</v>
       </c>
       <c r="T10">
-        <v>0.1196089759307349</v>
+        <v>0.07795662837348599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>14.863179</v>
       </c>
       <c r="I11">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J11">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>98.59994807443134</v>
+        <v>112.042864444836</v>
       </c>
       <c r="R11">
-        <v>887.399532669882</v>
+        <v>1008.385780003524</v>
       </c>
       <c r="S11">
-        <v>0.1977946295702152</v>
+        <v>0.2445972957627729</v>
       </c>
       <c r="T11">
-        <v>0.2108933878966246</v>
+        <v>0.2542981862359592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H12">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I12">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J12">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N12">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O12">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P12">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q12">
-        <v>1.070471610456667</v>
+        <v>0.1879833805293333</v>
       </c>
       <c r="R12">
-        <v>6.42282966274</v>
+        <v>1.691850424764</v>
       </c>
       <c r="S12">
-        <v>0.002147400072623509</v>
+        <v>0.0004103806766602032</v>
       </c>
       <c r="T12">
-        <v>0.001526406379078033</v>
+        <v>0.000426656645632705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H13">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I13">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J13">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O13">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P13">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q13">
-        <v>2.58486936444</v>
+        <v>0.6083057114639999</v>
       </c>
       <c r="R13">
-        <v>15.50921618664</v>
+        <v>5.474751403176</v>
       </c>
       <c r="S13">
-        <v>0.005185330098154374</v>
+        <v>0.001327973296277161</v>
       </c>
       <c r="T13">
-        <v>0.003685815717505491</v>
+        <v>0.001380641595239041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H14">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I14">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J14">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N14">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O14">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P14">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q14">
-        <v>1.384963557906667</v>
+        <v>0.3088163161346667</v>
       </c>
       <c r="R14">
-        <v>8.309781347440001</v>
+        <v>2.779346845212</v>
       </c>
       <c r="S14">
-        <v>0.002778280914484916</v>
+        <v>0.0006741673036318238</v>
       </c>
       <c r="T14">
-        <v>0.00197484658997869</v>
+        <v>0.0007009052246408879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H15">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I15">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J15">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N15">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O15">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P15">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q15">
-        <v>1.37427563344</v>
+        <v>0.198643168854</v>
       </c>
       <c r="R15">
-        <v>5.49710253376</v>
+        <v>1.191859013124</v>
       </c>
       <c r="S15">
-        <v>0.002756840598317985</v>
+        <v>0.0004336517293107785</v>
       </c>
       <c r="T15">
-        <v>0.001306404313141591</v>
+        <v>0.0003005670957451962</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H16">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I16">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J16">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N16">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O16">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P16">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q16">
-        <v>1.615406324286667</v>
+        <v>0.431988902904</v>
       </c>
       <c r="R16">
-        <v>9.692437945720002</v>
+        <v>3.887900126136001</v>
       </c>
       <c r="S16">
-        <v>0.003240556427843808</v>
+        <v>0.0009430615503575288</v>
       </c>
       <c r="T16">
-        <v>0.002303439431842814</v>
+        <v>0.0009804639949796664</v>
       </c>
     </row>
   </sheetData>
